--- a/URS/DbLayouts/L2-業務作業/Guarantor.xlsx
+++ b/URS/DbLayouts/L2-業務作業/Guarantor.xlsx
@@ -173,9 +173,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Guarantor</t>
-  </si>
-  <si>
     <t>DECIMAL</t>
   </si>
   <si>
@@ -248,10 +245,6 @@
   <si>
     <t>ApproveNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>approveNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>guaUKeyEq</t>
@@ -321,6 +314,14 @@
   <si>
     <t>規劃調整為ApplNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guarantor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approveNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,14 +545,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -860,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -876,25 +877,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>20</v>
@@ -904,57 +905,57 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -962,12 +963,12 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -975,10 +976,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
@@ -1013,20 +1014,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="18">
         <v>7</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="21" t="s">
-        <v>64</v>
+      <c r="G10" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1034,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
@@ -1053,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,13 +1075,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="18">
         <v>16</v>
@@ -1095,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>3</v>
@@ -1108,7 +1109,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1116,13 +1117,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="E15" s="18">
         <v>8</v>
@@ -1135,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1156,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="18">
         <v>8</v>
@@ -1742,7 +1743,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1766,24 +1767,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
